--- a/project/app/data/chemistry.xlsx
+++ b/project/app/data/chemistry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lambe\OneDrive\Documents\Courses\2023-2024\Semester 2\COMP3901\FST-Degree-Planner\project\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9135570A-67BE-4F74-9AA4-2F5B7698BC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3BBF69-A4A3-4B82-9EF7-F0B25890C2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="254">
   <si>
     <t>LEVEL</t>
   </si>
@@ -3020,6 +3020,9 @@
     <t>This course is only available to students majoring in Applied Chemistry and Food Chemistry but students who do not have any overlapping Management Studies courses and are majoring in areas which have an industrial direction and have the approval of the Department within which they are majoring may be allowed to take the course.
 CHEM2510 or CHEM2512 and CHEM2511 OR
 CHEM3402 and Permission of HOD</t>
+  </si>
+  <si>
+    <t>ANTI-REQUISITE</t>
   </si>
 </sst>
 </file>
@@ -3480,10 +3483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3494,15 +3497,15 @@
     <col min="4" max="4" width="8.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.77734375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="60.5546875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>9</v>
       </c>
@@ -3524,20 +3527,23 @@
       <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>2</v>
-      </c>
       <c r="K1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -3563,16 +3569,19 @@
         <v>3</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -3598,16 +3607,19 @@
         <v>3</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -3633,16 +3645,19 @@
         <v>3</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>28</v>
       </c>
@@ -3668,16 +3683,19 @@
         <v>41</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>30</v>
       </c>
@@ -3703,16 +3721,19 @@
         <v>3</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>32</v>
       </c>
@@ -3738,16 +3759,19 @@
         <v>3</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
@@ -3773,16 +3797,19 @@
         <v>43</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>36</v>
       </c>
@@ -3808,16 +3835,19 @@
         <v>3</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
@@ -3843,16 +3873,19 @@
         <v>3</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>46</v>
       </c>
@@ -3878,16 +3911,19 @@
         <v>63</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>48</v>
       </c>
@@ -3913,16 +3949,19 @@
         <v>3</v>
       </c>
       <c r="I12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>50</v>
       </c>
@@ -3948,16 +3987,19 @@
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
@@ -3983,16 +4025,19 @@
         <v>3</v>
       </c>
       <c r="I14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>54</v>
       </c>
@@ -4018,16 +4063,19 @@
         <v>65</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>56</v>
       </c>
@@ -4053,16 +4101,19 @@
         <v>3</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="L16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>69</v>
       </c>
@@ -4088,16 +4139,19 @@
         <v>66</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="L17" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>71</v>
       </c>
@@ -4123,16 +4177,19 @@
         <v>3</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>73</v>
       </c>
@@ -4158,16 +4215,19 @@
         <v>63</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>75</v>
       </c>
@@ -4193,16 +4253,19 @@
         <v>85</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="L20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>77</v>
       </c>
@@ -4221,23 +4284,26 @@
       <c r="F21" s="6">
         <v>2</v>
       </c>
-      <c r="G21" s="11" t="s">
-        <v>82</v>
+      <c r="G21" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
@@ -4263,16 +4329,19 @@
         <v>86</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="L22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>87</v>
       </c>
@@ -4298,16 +4367,19 @@
         <v>3</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>89</v>
       </c>
@@ -4333,16 +4405,19 @@
         <v>3</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>91</v>
       </c>
@@ -4368,16 +4443,19 @@
         <v>113</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="L25" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>93</v>
       </c>
@@ -4403,16 +4481,19 @@
         <v>3</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="L26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>95</v>
       </c>
@@ -4438,16 +4519,19 @@
         <v>114</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="4" t="s">
+      <c r="L27" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>97</v>
       </c>
@@ -4473,16 +4557,19 @@
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="L28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>99</v>
       </c>
@@ -4508,16 +4595,19 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="L29" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>101</v>
       </c>
@@ -4543,16 +4633,19 @@
         <v>118</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K30" s="4" t="s">
+      <c r="L30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>103</v>
       </c>
@@ -4578,16 +4671,19 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>105</v>
       </c>
@@ -4613,16 +4709,19 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="4" t="s">
+      <c r="K32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="4" t="s">
+      <c r="L32" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>119</v>
       </c>
@@ -4648,16 +4747,19 @@
         <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="K33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>121</v>
       </c>
@@ -4683,16 +4785,19 @@
         <v>139</v>
       </c>
       <c r="I34" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="K34" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>123</v>
       </c>
@@ -4718,16 +4823,19 @@
         <v>3</v>
       </c>
       <c r="I35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>125</v>
       </c>
@@ -4753,16 +4861,19 @@
         <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="K36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="L36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>127</v>
       </c>
@@ -4788,16 +4899,19 @@
         <v>3</v>
       </c>
       <c r="I37" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="K37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="L37" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>129</v>
       </c>
@@ -4823,16 +4937,19 @@
         <v>3</v>
       </c>
       <c r="I38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="K38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="L38" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>131</v>
       </c>
@@ -4858,16 +4975,19 @@
         <v>3</v>
       </c>
       <c r="I39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J39" s="4" t="s">
+      <c r="K39" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="L39" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>141</v>
       </c>
@@ -4893,16 +5013,19 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="4" t="s">
+      <c r="K40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="L40" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>143</v>
       </c>
@@ -4928,16 +5051,19 @@
         <v>164</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="L41" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>145</v>
       </c>
@@ -4963,16 +5089,19 @@
         <v>3</v>
       </c>
       <c r="I42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="L42" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>147</v>
       </c>
@@ -4998,16 +5127,19 @@
         <v>3</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="L43" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
@@ -5033,16 +5165,19 @@
         <v>3</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K44" s="4" t="s">
+      <c r="L44" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>151</v>
       </c>
@@ -5068,16 +5203,19 @@
         <v>140</v>
       </c>
       <c r="I45" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>153</v>
       </c>
@@ -5103,16 +5241,19 @@
         <v>3</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>155</v>
       </c>
@@ -5138,16 +5279,19 @@
         <v>3</v>
       </c>
       <c r="I47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="4" t="s">
+      <c r="K47" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>157</v>
       </c>
@@ -5173,16 +5317,19 @@
         <v>3</v>
       </c>
       <c r="I48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>167</v>
       </c>
@@ -5208,16 +5355,19 @@
         <v>3</v>
       </c>
       <c r="I49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>169</v>
       </c>
@@ -5243,16 +5393,19 @@
         <v>193</v>
       </c>
       <c r="I50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J50" s="4" t="s">
+      <c r="K50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K50" s="4" t="s">
+      <c r="L50" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>171</v>
       </c>
@@ -5278,16 +5431,19 @@
         <v>3</v>
       </c>
       <c r="I51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K51" s="4" t="s">
+      <c r="L51" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>173</v>
       </c>
@@ -5313,16 +5469,19 @@
         <v>3</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J52" s="4" t="s">
+      <c r="K52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K52" s="4" t="s">
+      <c r="L52" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>175</v>
       </c>
@@ -5348,16 +5507,19 @@
         <v>3</v>
       </c>
       <c r="I53" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="4" t="s">
+      <c r="K53" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K53" s="4" t="s">
+      <c r="L53" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>177</v>
       </c>
@@ -5383,16 +5545,19 @@
         <v>3</v>
       </c>
       <c r="I54" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K54" s="4" t="s">
+      <c r="L54" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>179</v>
       </c>
@@ -5418,16 +5583,19 @@
         <v>3</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K55" s="4" t="s">
+      <c r="L55" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>181</v>
       </c>
@@ -5453,16 +5621,19 @@
         <v>3</v>
       </c>
       <c r="I56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>183</v>
       </c>
@@ -5488,16 +5659,19 @@
         <v>3</v>
       </c>
       <c r="I57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="L57" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>185</v>
       </c>
@@ -5523,16 +5697,19 @@
         <v>3</v>
       </c>
       <c r="I58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="4" t="s">
+      <c r="K58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="L58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>187</v>
       </c>
@@ -5558,20 +5735,23 @@
         <v>3</v>
       </c>
       <c r="I59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J59" s="4" t="s">
+      <c r="K59" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="L59" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:12" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="31.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="29.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="28.8" customHeight="1" x14ac:dyDescent="0.25"/>
